--- a/src/main/resources/reports/reportStatusEmp.xlsx
+++ b/src/main/resources/reports/reportStatusEmp.xlsx
@@ -256,9 +256,9 @@
     <col min="33" max="33" customWidth="1" width="0.5"/>
     <col min="34" max="34" customWidth="1" width="0.33333334"/>
     <col min="35" max="35" customWidth="1" width="2.3333333"/>
-    <col min="36" max="36" customWidth="1" width="4.0"/>
-    <col min="37" max="37" customWidth="1" width="2.3333333"/>
-    <col min="38" max="38" customWidth="1" width="1.8333334"/>
+    <col min="36" max="36" customWidth="1" width="2.3333333"/>
+    <col min="37" max="37" customWidth="1" width="1.6666666"/>
+    <col min="38" max="38" customWidth="1" width="4.1666665"/>
     <col min="39" max="39" customWidth="1" width="3.1666667"/>
     <col min="40" max="40" customWidth="1" width="9.5"/>
     <col min="41" max="41" customWidth="1" width="6.0"/>
@@ -595,7 +595,7 @@
       <c r="AH5" s="6" t="inlineStr"/>
       <c r="AI5" s="6" t="inlineStr"/>
       <c r="AJ5" s="6" t="inlineStr"/>
-      <c r="AK5" s="6" t="inlineStr"/>
+      <c r="AK5" s="1" t="inlineStr"/>
       <c r="AL5" s="1" t="inlineStr"/>
       <c r="AM5" s="1" t="inlineStr"/>
       <c r="AN5" s="5" t="inlineStr"/>
@@ -1154,7 +1154,7 @@
               <rFont val="Angsana New"/>
               <sz val="12.0"/>
             </rPr>
-            <t xml:space="preserve">2010-03-04</t>
+            <t xml:space="preserve">04-03-2010</t>
           </r>
         </is>
       </c>
@@ -1182,7 +1182,7 @@
               <rFont val="Angsana New"/>
               <sz val="12.0"/>
             </rPr>
-            <t xml:space="preserve">1940-01-26</t>
+            <t xml:space="preserve">26-01-1940</t>
           </r>
         </is>
       </c>
@@ -1234,7 +1234,7 @@
       <c r="O16" s="1" t="inlineStr"/>
       <c r="P16" s="1" t="inlineStr"/>
       <c r="Q16" s="7" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="R16" s="1" t="inlineStr"/>
       <c r="S16" s="1" t="inlineStr"/>
@@ -1252,16 +1252,16 @@
       <c r="AC16" s="1" t="inlineStr"/>
       <c r="AD16" s="1" t="inlineStr"/>
       <c r="AE16" s="7" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AF16" s="1" t="inlineStr"/>
       <c r="AG16" s="1" t="inlineStr"/>
       <c r="AH16" s="1" t="inlineStr"/>
       <c r="AI16" s="1" t="inlineStr"/>
       <c r="AJ16" s="7" t="n">
-        <v>-9</v>
-      </c>
-      <c r="AK16" s="1" t="inlineStr"/>
+        <v>23</v>
+      </c>
+      <c r="AK16" s="8" t="inlineStr"/>
       <c r="AL16" s="1" t="inlineStr"/>
       <c r="AM16" s="1" t="inlineStr"/>
       <c r="AN16" s="7" t="inlineStr">
@@ -1297,7 +1297,7 @@
               <rFont val="Angsana New"/>
               <sz val="12.0"/>
             </rPr>
-            <t xml:space="preserve">1940-01-26</t>
+            <t xml:space="preserve">26-01-1940</t>
           </r>
         </is>
       </c>
@@ -1309,7 +1309,7 @@
               <rFont val="Angsana New"/>
               <sz val="12.0"/>
             </rPr>
-            <t xml:space="preserve">2015-05-26</t>
+            <t xml:space="preserve">26-05-2015</t>
           </r>
         </is>
       </c>
@@ -1352,7 +1352,7 @@
       <c r="AH17" s="1" t="inlineStr"/>
       <c r="AI17" s="1" t="inlineStr"/>
       <c r="AJ17" s="8" t="inlineStr"/>
-      <c r="AK17" s="1" t="inlineStr"/>
+      <c r="AK17" s="8" t="inlineStr"/>
       <c r="AL17" s="1" t="inlineStr"/>
       <c r="AM17" s="1" t="inlineStr"/>
       <c r="AN17" s="8" t="inlineStr"/>
@@ -1440,7 +1440,7 @@
               <rFont val="Angsana New"/>
               <sz val="12.0"/>
             </rPr>
-            <t xml:space="preserve">2010-03-04</t>
+            <t xml:space="preserve">04-03-2010</t>
           </r>
         </is>
       </c>
@@ -1468,7 +1468,7 @@
               <rFont val="Angsana New"/>
               <sz val="12.0"/>
             </rPr>
-            <t xml:space="preserve">1943-01-26</t>
+            <t xml:space="preserve">26-01-1943</t>
           </r>
         </is>
       </c>
@@ -1520,7 +1520,7 @@
       <c r="O20" s="1" t="inlineStr"/>
       <c r="P20" s="1" t="inlineStr"/>
       <c r="Q20" s="7" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="R20" s="1" t="inlineStr"/>
       <c r="S20" s="1" t="inlineStr"/>
@@ -1538,16 +1538,16 @@
       <c r="AC20" s="1" t="inlineStr"/>
       <c r="AD20" s="1" t="inlineStr"/>
       <c r="AE20" s="7" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AF20" s="1" t="inlineStr"/>
       <c r="AG20" s="1" t="inlineStr"/>
       <c r="AH20" s="1" t="inlineStr"/>
       <c r="AI20" s="1" t="inlineStr"/>
       <c r="AJ20" s="7" t="n">
-        <v>-9</v>
-      </c>
-      <c r="AK20" s="1" t="inlineStr"/>
+        <v>23</v>
+      </c>
+      <c r="AK20" s="8" t="inlineStr"/>
       <c r="AL20" s="1" t="inlineStr"/>
       <c r="AM20" s="1" t="inlineStr"/>
       <c r="AN20" s="7" t="inlineStr">
@@ -1583,7 +1583,7 @@
               <rFont val="Angsana New"/>
               <sz val="12.0"/>
             </rPr>
-            <t xml:space="preserve">1940-01-26</t>
+            <t xml:space="preserve">26-01-1940</t>
           </r>
         </is>
       </c>
@@ -1595,7 +1595,7 @@
               <rFont val="Angsana New"/>
               <sz val="12.0"/>
             </rPr>
-            <t xml:space="preserve">2015-05-26</t>
+            <t xml:space="preserve">26-05-2015</t>
           </r>
         </is>
       </c>
@@ -1638,7 +1638,7 @@
       <c r="AH21" s="1" t="inlineStr"/>
       <c r="AI21" s="1" t="inlineStr"/>
       <c r="AJ21" s="8" t="inlineStr"/>
-      <c r="AK21" s="1" t="inlineStr"/>
+      <c r="AK21" s="8" t="inlineStr"/>
       <c r="AL21" s="1" t="inlineStr"/>
       <c r="AM21" s="1" t="inlineStr"/>
       <c r="AN21" s="8" t="inlineStr"/>
@@ -1715,7 +1715,7 @@
     <mergeCell ref="AT4:AT10"/>
     <mergeCell ref="AV4:AV10"/>
     <mergeCell ref="H5:R5"/>
-    <mergeCell ref="Y5:AK5"/>
+    <mergeCell ref="Y5:AJ5"/>
     <mergeCell ref="U6:W11"/>
     <mergeCell ref="H7:J12"/>
     <mergeCell ref="K7:M12"/>
@@ -1731,7 +1731,7 @@
     <mergeCell ref="Q16:Q17"/>
     <mergeCell ref="Z16:Z17"/>
     <mergeCell ref="AE16:AE17"/>
-    <mergeCell ref="AJ16:AJ17"/>
+    <mergeCell ref="AJ16:AK17"/>
     <mergeCell ref="AN16:AN17"/>
     <mergeCell ref="AQ16:AQ17"/>
     <mergeCell ref="AT16:AT17"/>
@@ -1745,7 +1745,7 @@
     <mergeCell ref="Q20:Q21"/>
     <mergeCell ref="Z20:Z21"/>
     <mergeCell ref="AE20:AE21"/>
-    <mergeCell ref="AJ20:AJ21"/>
+    <mergeCell ref="AJ20:AK21"/>
     <mergeCell ref="AN20:AN21"/>
     <mergeCell ref="AQ20:AQ21"/>
     <mergeCell ref="AT20:AT21"/>
